--- a/fhir/ig/snre/StructureDefinition-DispensacionMedicamentoCl.xlsx
+++ b/fhir/ig/snre/StructureDefinition-DispensacionMedicamentoCl.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-15T12:15:27-03:00</t>
+    <t>2023-10-05T13:07:34-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
